--- a/SWE/static/분석중.xlsx
+++ b/SWE/static/분석중.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/727e18b1e1ec388a/Documents/GitHub/forensic-science/SWE/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/727e18b1e1ec388a/Desktop/SWE/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A144CD16-35A6-48F9-8524-E2877F6B0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{016D16CC-DB63-4793-8DBA-C6302C227D97}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{A144CD16-35A6-48F9-8524-E2877F6B0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7CD3884-91B6-465D-A928-B37CD019D37D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{48D9225C-3C94-4E3B-81F1-286207FBA870}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{48D9225C-3C94-4E3B-81F1-286207FBA870}"/>
   </bookViews>
   <sheets>
     <sheet name="All verts" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>Descriptive Statistics</t>
   </si>
@@ -64,72 +61,6 @@
   </si>
   <si>
     <t>Mean</t>
-  </si>
-  <si>
-    <t>see_1</t>
-  </si>
-  <si>
-    <t>see_2</t>
-  </si>
-  <si>
-    <t>see_3</t>
-  </si>
-  <si>
-    <t>see_4</t>
-  </si>
-  <si>
-    <t>see_5</t>
-  </si>
-  <si>
-    <t>see_6</t>
-  </si>
-  <si>
-    <t>see_7</t>
-  </si>
-  <si>
-    <t>see_8</t>
-  </si>
-  <si>
-    <t>see_9</t>
-  </si>
-  <si>
-    <t>see_10</t>
-  </si>
-  <si>
-    <t>see_11</t>
-  </si>
-  <si>
-    <t>see_12</t>
-  </si>
-  <si>
-    <t>see_13</t>
-  </si>
-  <si>
-    <t>see_14</t>
-  </si>
-  <si>
-    <t>see_15</t>
-  </si>
-  <si>
-    <t>see_16</t>
-  </si>
-  <si>
-    <t>see_17</t>
-  </si>
-  <si>
-    <t>see_18</t>
-  </si>
-  <si>
-    <t>see_19</t>
-  </si>
-  <si>
-    <t>see_20</t>
-  </si>
-  <si>
-    <t>see_21</t>
-  </si>
-  <si>
-    <t>see_22</t>
   </si>
   <si>
     <t>Valid N (listwise)</t>
@@ -337,6 +268,9 @@
   </si>
   <si>
     <t>CI_T&amp;L intact</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # of Vertebra Entered </t>
   </si>
 </sst>
 </file>
@@ -848,78 +782,79 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'All verts'!$A$4:$A$25</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>see_1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>see_2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>see_3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>see_4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>see_5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>see_6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>see_7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>see_8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>see_9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>see_10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>see_11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>see_12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>see_13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>see_14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>see_15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>see_16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>see_17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>see_18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>see_19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>see_20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>see_21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>see_22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1035,78 +970,79 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'All verts'!$A$4:$A$25</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>see_1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>see_2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>see_3</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>see_4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>see_5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>see_6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>see_7</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>see_8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>see_9</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>see_10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>see_11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>see_12</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>see_13</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>see_14</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>see_15</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>see_16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>see_17</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>see_18</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>see_19</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>see_20</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>see_21</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>see_22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -15750,16 +15686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>94295</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>160421</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77174</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15782,56 +15718,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEDC24C-767A-0951-E28F-248B414BD7AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29537025" y="1552575"/>
-          <a:ext cx="0" cy="5943600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16618,23 +16504,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF2FFB5-A9E2-440A-BAED-A4CAC974270C}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -16644,54 +16531,54 @@
       <c r="G2" s="41"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="40" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="M3" s="40"/>
       <c r="N3" s="40" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="40" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="40"/>
       <c r="R3" s="40" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
+      <c r="A4" s="6">
+        <v>1</v>
       </c>
       <c r="B4" s="7">
         <v>10000</v>
@@ -16713,8 +16600,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
+      <c r="A5" s="9">
+        <v>2</v>
       </c>
       <c r="B5" s="7">
         <v>10000</v>
@@ -16736,8 +16623,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
+      <c r="A6" s="9">
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>10000</v>
@@ -16759,8 +16646,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
+      <c r="A7" s="9">
+        <v>4</v>
       </c>
       <c r="B7" s="7">
         <v>10000</v>
@@ -16782,8 +16669,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
+      <c r="A8" s="9">
+        <v>5</v>
       </c>
       <c r="B8" s="7">
         <v>10000</v>
@@ -16811,8 +16698,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>12</v>
+      <c r="A9" s="9">
+        <v>6</v>
       </c>
       <c r="B9" s="7">
         <v>10000</v>
@@ -16846,8 +16733,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
+      <c r="A10" s="9">
+        <v>7</v>
       </c>
       <c r="B10" s="7">
         <v>10000</v>
@@ -16881,8 +16768,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>14</v>
+      <c r="A11" s="9">
+        <v>8</v>
       </c>
       <c r="B11" s="7">
         <v>10000</v>
@@ -16916,8 +16803,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>15</v>
+      <c r="A12" s="22">
+        <v>9</v>
       </c>
       <c r="B12" s="7">
         <v>10000</v>
@@ -16951,8 +16838,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>16</v>
+      <c r="A13" s="22">
+        <v>10</v>
       </c>
       <c r="B13" s="7">
         <v>10000</v>
@@ -16986,8 +16873,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>17</v>
+      <c r="A14" s="20">
+        <v>11</v>
       </c>
       <c r="B14" s="7">
         <v>10000</v>
@@ -17027,8 +16914,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>18</v>
+      <c r="A15" s="20">
+        <v>12</v>
       </c>
       <c r="B15" s="7">
         <v>10000</v>
@@ -17074,8 +16961,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>19</v>
+      <c r="A16" s="20">
+        <v>13</v>
       </c>
       <c r="B16" s="7">
         <v>10000</v>
@@ -17121,8 +17008,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>20</v>
+      <c r="A17" s="18">
+        <v>14</v>
       </c>
       <c r="B17" s="7">
         <v>10000</v>
@@ -17168,8 +17055,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>21</v>
+      <c r="A18" s="18">
+        <v>15</v>
       </c>
       <c r="B18" s="7">
         <v>10000</v>
@@ -17215,8 +17102,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>22</v>
+      <c r="A19" s="18">
+        <v>16</v>
       </c>
       <c r="B19" s="7">
         <v>10000</v>
@@ -17262,8 +17149,8 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>23</v>
+      <c r="A20" s="18">
+        <v>17</v>
       </c>
       <c r="B20" s="7">
         <v>10000</v>
@@ -17315,8 +17202,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>24</v>
+      <c r="A21" s="16">
+        <v>18</v>
       </c>
       <c r="B21" s="7">
         <v>10000</v>
@@ -17374,8 +17261,8 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>25</v>
+      <c r="A22" s="16">
+        <v>19</v>
       </c>
       <c r="B22" s="7">
         <v>10000</v>
@@ -17433,8 +17320,8 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>26</v>
+      <c r="A23" s="16">
+        <v>20</v>
       </c>
       <c r="B23" s="7">
         <v>10000</v>
@@ -17492,8 +17379,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>27</v>
+      <c r="A24" s="16">
+        <v>21</v>
       </c>
       <c r="B24" s="7">
         <v>10000</v>
@@ -17551,8 +17438,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>28</v>
+      <c r="A25" s="14">
+        <v>22</v>
       </c>
       <c r="B25" s="7">
         <v>10000</v>
@@ -17611,7 +17498,7 @@
     </row>
     <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B26" s="7">
         <v>10000</v>
@@ -17644,32 +17531,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
@@ -17789,7 +17676,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -17802,7 +17689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312137B1-3AA4-4871-A51D-CED8ABD85D8F}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -17810,32 +17697,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
@@ -18105,39 +17992,39 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
@@ -18245,40 +18132,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6393C2-DA08-4500-91CB-8E583F019C76}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
@@ -18726,32 +18613,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
@@ -19024,32 +18911,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
@@ -19439,18 +19326,18 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -19461,35 +19348,35 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="36"/>
       <c r="I3" s="36" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
@@ -19500,10 +19387,10 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="32"/>
       <c r="G5" s="37" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I5" s="37">
         <v>0.82399999999999995</v>
@@ -19523,11 +19410,11 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I6" s="37">
         <v>0.82399999999999995</v>
@@ -19545,11 +19432,11 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I7" s="37">
         <v>0.65200000000000002</v>
@@ -19567,13 +19454,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I8" s="37">
         <v>0.89300000000000002</v>
@@ -19595,7 +19482,7 @@
       <c r="A9" s="32"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I9" s="37">
         <v>0.82399999999999995</v>
@@ -19613,11 +19500,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I10" s="37">
         <v>0.79800000000000004</v>
@@ -19635,13 +19522,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="I11" s="37">
         <v>0.79800000000000004</v>
@@ -19661,11 +19548,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I12" s="37">
         <v>0.65200000000000002</v>
@@ -19685,7 +19572,7 @@
       <c r="A13" s="32"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I13" s="37">
         <v>0.79800000000000004</v>
@@ -19703,13 +19590,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I14" s="37">
         <v>0.88300000000000001</v>
@@ -19727,11 +19614,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I15" s="37">
         <v>0.97399999999999998</v>
@@ -19749,11 +19636,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I16" s="37">
         <v>0.88200000000000001</v>
@@ -19773,7 +19660,7 @@
       <c r="A17" s="32"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="I17" s="37">
         <v>0.98399999999999999</v>
@@ -19793,11 +19680,11 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I18" s="37">
         <v>0.97099999999999997</v>
@@ -19817,11 +19704,11 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I19" s="37">
         <v>0.99</v>
@@ -19841,7 +19728,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -19849,17 +19736,17 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -19867,17 +19754,17 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -19885,17 +19772,17 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -19903,17 +19790,17 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
@@ -19921,17 +19808,17 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -19939,17 +19826,17 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
@@ -19957,17 +19844,17 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="34" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
